--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_449__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_449__Reeval_LHS_Modell_1.2.xlsx
@@ -5879,70 +5879,70 @@
                   <c:v>43.92964553833008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.79705429077148</c:v>
+                  <c:v>52.79706192016602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.09590530395508</c:v>
+                  <c:v>48.09587860107422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.95582580566406</c:v>
+                  <c:v>42.95583724975586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.79640960693359</c:v>
+                  <c:v>65.79642486572266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.18393707275391</c:v>
+                  <c:v>49.18392944335938</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>65.35938262939453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.84841156005859</c:v>
+                  <c:v>64.84838104248047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.23403930664062</c:v>
+                  <c:v>66.23401641845703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.83309173583984</c:v>
+                  <c:v>42.8331184387207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.85944747924805</c:v>
+                  <c:v>42.85941696166992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.50412750244141</c:v>
+                  <c:v>64.504150390625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.82476043701172</c:v>
+                  <c:v>42.82474899291992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.83332824707031</c:v>
+                  <c:v>42.83330535888672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.79201889038086</c:v>
+                  <c:v>47.79200744628906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.11125564575195</c:v>
+                  <c:v>43.11122131347656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59.16936874389648</c:v>
+                  <c:v>59.16938018798828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.62001800537109</c:v>
+                  <c:v>47.61999893188477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.87007904052734</c:v>
+                  <c:v>42.87006378173828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.64045333862305</c:v>
+                  <c:v>46.64044189453125</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>42.88908004760742</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.79183959960938</c:v>
+                  <c:v>55.79185104370117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.90459442138672</c:v>
+                  <c:v>42.90460586547852</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53.78231430053711</c:v>
@@ -5954,103 +5954,103 @@
                   <c:v>61.63536071777344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.42891693115234</c:v>
+                  <c:v>47.42889404296875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56.82102966308594</c:v>
+                  <c:v>56.82100296020508</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>56.6104621887207</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.9122314453125</c:v>
+                  <c:v>42.91220855712891</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.94996643066406</c:v>
+                  <c:v>62.94998931884766</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54.45523452758789</c:v>
+                  <c:v>54.4552116394043</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66.17811584472656</c:v>
+                  <c:v>66.17812347412109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.31371688842773</c:v>
+                  <c:v>43.313720703125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63.4937744140625</c:v>
+                  <c:v>63.49378967285156</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.45511627197266</c:v>
+                  <c:v>43.45515441894531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.24649047851562</c:v>
+                  <c:v>43.24646759033203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65.900146484375</c:v>
+                  <c:v>65.90013885498047</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>66.05645751953125</c:v>
+                  <c:v>66.05644226074219</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.9509391784668</c:v>
+                  <c:v>42.95096206665039</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43.45882415771484</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65.79855346679688</c:v>
+                  <c:v>65.79856872558594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.91930389404297</c:v>
+                  <c:v>65.91931915283203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.81637954711914</c:v>
+                  <c:v>42.81635665893555</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.43519592285156</c:v>
+                  <c:v>46.43526077270508</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58.94613647460938</c:v>
+                  <c:v>58.94611358642578</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.97428131103516</c:v>
+                  <c:v>43.97425842285156</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>59.04253768920898</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>44.88928985595703</c:v>
+                  <c:v>44.88928604125977</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45.16358184814453</c:v>
+                  <c:v>45.16357040405273</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>66.01884460449219</c:v>
+                  <c:v>66.01885986328125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>56.57320785522461</c:v>
+                  <c:v>56.5732421875</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>59.89610290527344</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.97764587402344</c:v>
+                  <c:v>50.97762298583984</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>53.22495269775391</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42.95087432861328</c:v>
+                  <c:v>42.95085144042969</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>42.9090461730957</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.23507690429688</c:v>
+                  <c:v>46.23507308959961</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42.88053512573242</c:v>
+                  <c:v>42.88052368164062</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>50.00674819946289</c:v>
@@ -6059,22 +6059,22 @@
                   <c:v>58.28810501098633</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>54.21376037597656</c:v>
+                  <c:v>54.21378707885742</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.72867202758789</c:v>
+                  <c:v>49.72867965698242</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.64110946655273</c:v>
+                  <c:v>50.64109802246094</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>50.27361679077148</c:v>
+                  <c:v>50.27359390258789</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66.25380706787109</c:v>
+                  <c:v>66.2537841796875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>56.42010116577148</c:v>
+                  <c:v>56.42008972167969</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>60.23161697387695</c:v>
@@ -6083,88 +6083,88 @@
                   <c:v>63.84434509277344</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>44.95150375366211</c:v>
+                  <c:v>44.95147705078125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>44.26574325561523</c:v>
+                  <c:v>44.26575469970703</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>47.32146835327148</c:v>
+                  <c:v>47.32143783569336</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43.62744522094727</c:v>
+                  <c:v>43.62746810913086</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>58.45555114746094</c:v>
+                  <c:v>58.45553970336914</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>52.72816467285156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>46.85737228393555</c:v>
+                  <c:v>46.85740280151367</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>65.79022979736328</c:v>
+                  <c:v>65.79025268554688</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43.07309722900391</c:v>
+                  <c:v>43.07307434082031</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42.89034271240234</c:v>
+                  <c:v>42.89033889770508</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>54.34267044067383</c:v>
+                  <c:v>54.34269714355469</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>61.52305603027344</c:v>
+                  <c:v>61.52306365966797</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>64.883544921875</c:v>
+                  <c:v>64.88358306884766</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>65.30885314941406</c:v>
+                  <c:v>65.30887603759766</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44.93659973144531</c:v>
+                  <c:v>44.93658828735352</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>65.80723571777344</c:v>
+                  <c:v>65.80722808837891</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>64.92397308349609</c:v>
+                  <c:v>64.9239501953125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42.86597442626953</c:v>
+                  <c:v>42.86598205566406</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>65.76584625244141</c:v>
+                  <c:v>65.76582336425781</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.43804168701172</c:v>
+                  <c:v>64.43805694580078</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>65.69744873046875</c:v>
+                  <c:v>65.69742584228516</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>43.08224487304688</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>63.40547180175781</c:v>
+                  <c:v>63.40545654296875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65.50957489013672</c:v>
+                  <c:v>65.50954437255859</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>66.09748077392578</c:v>
+                  <c:v>66.09752655029297</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42.84923934936523</c:v>
+                  <c:v>42.84920501708984</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>66.18356323242188</c:v>
+                  <c:v>66.18353271484375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46.32245635986328</c:v>
+                  <c:v>46.32246398925781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>52.79705429077148</v>
+        <v>52.79706192016602</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>48.09590530395508</v>
+        <v>48.09587860107422</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.95582580566406</v>
+        <v>42.95583724975586</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.79640960693359</v>
+        <v>65.79642486572266</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>49.18393707275391</v>
+        <v>49.18392944335938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>94.1598</v>
       </c>
       <c r="F10">
-        <v>64.84841156005859</v>
+        <v>64.84838104248047</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>66.23403930664062</v>
+        <v>66.23401641845703</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>42.83309173583984</v>
+        <v>42.8331184387207</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>98.44929999999999</v>
       </c>
       <c r="F13">
-        <v>42.85944747924805</v>
+        <v>42.85941696166992</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>64.50412750244141</v>
+        <v>64.504150390625</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>42.82476043701172</v>
+        <v>42.82474899291992</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.83332824707031</v>
+        <v>42.83330535888672</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>47.79201889038086</v>
+        <v>47.79200744628906</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>43.11125564575195</v>
+        <v>43.11122131347656</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>59.16936874389648</v>
+        <v>59.16938018798828</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>94.2979</v>
       </c>
       <c r="F20">
-        <v>47.62001800537109</v>
+        <v>47.61999893188477</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.87007904052734</v>
+        <v>42.87006378173828</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>46.64045333862305</v>
+        <v>46.64044189453125</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>55.79183959960938</v>
+        <v>55.79185104370117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>42.90459442138672</v>
+        <v>42.90460586547852</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>47.42891693115234</v>
+        <v>47.42889404296875</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>56.82102966308594</v>
+        <v>56.82100296020508</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>42.9122314453125</v>
+        <v>42.91220855712891</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>91.72880000000001</v>
       </c>
       <c r="F33">
-        <v>62.94996643066406</v>
+        <v>62.94998931884766</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>54.45523452758789</v>
+        <v>54.4552116394043</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>66.17811584472656</v>
+        <v>66.17812347412109</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>43.31371688842773</v>
+        <v>43.313720703125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>63.4937744140625</v>
+        <v>63.49378967285156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>43.45511627197266</v>
+        <v>43.45515441894531</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>43.24649047851562</v>
+        <v>43.24646759033203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>65.900146484375</v>
+        <v>65.90013885498047</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>66.05645751953125</v>
+        <v>66.05644226074219</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>42.9509391784668</v>
+        <v>42.95096206665039</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>65.79855346679688</v>
+        <v>65.79856872558594</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>65.91930389404297</v>
+        <v>65.91931915283203</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>42.81637954711914</v>
+        <v>42.81635665893555</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>46.43519592285156</v>
+        <v>46.43526077270508</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>58.94613647460938</v>
+        <v>58.94611358642578</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>43.97428131103516</v>
+        <v>43.97425842285156</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>98.24630000000001</v>
       </c>
       <c r="F51">
-        <v>44.88928985595703</v>
+        <v>44.88928604125977</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>45.16358184814453</v>
+        <v>45.16357040405273</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>66.01884460449219</v>
+        <v>66.01885986328125</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>56.57320785522461</v>
+        <v>56.5732421875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>50.97764587402344</v>
+        <v>50.97762298583984</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>42.95087432861328</v>
+        <v>42.95085144042969</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>46.23507690429688</v>
+        <v>46.23507308959961</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>42.88053512573242</v>
+        <v>42.88052368164062</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>54.21376037597656</v>
+        <v>54.21378707885742</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>49.72867202758789</v>
+        <v>49.72867965698242</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>50.64110946655273</v>
+        <v>50.64109802246094</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>50.27361679077148</v>
+        <v>50.27359390258789</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>66.25380706787109</v>
+        <v>66.2537841796875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>56.42010116577148</v>
+        <v>56.42008972167969</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>44.95150375366211</v>
+        <v>44.95147705078125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>44.26574325561523</v>
+        <v>44.26575469970703</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.41719999999999</v>
       </c>
       <c r="F74">
-        <v>47.32146835327148</v>
+        <v>47.32143783569336</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>43.62744522094727</v>
+        <v>43.62746810913086</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>58.45555114746094</v>
+        <v>58.45553970336914</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>46.85737228393555</v>
+        <v>46.85740280151367</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>65.79022979736328</v>
+        <v>65.79025268554688</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>43.07309722900391</v>
+        <v>43.07307434082031</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>42.89034271240234</v>
+        <v>42.89033889770508</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>54.34267044067383</v>
+        <v>54.34269714355469</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>73.425</v>
       </c>
       <c r="F83">
-        <v>61.52305603027344</v>
+        <v>61.52306365966797</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>64.883544921875</v>
+        <v>64.88358306884766</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.43989999999999</v>
       </c>
       <c r="F85">
-        <v>65.30885314941406</v>
+        <v>65.30887603759766</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>44.93659973144531</v>
+        <v>44.93658828735352</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>65.80723571777344</v>
+        <v>65.80722808837891</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>64.92397308349609</v>
+        <v>64.9239501953125</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>42.86597442626953</v>
+        <v>42.86598205566406</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>65.76584625244141</v>
+        <v>65.76582336425781</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>92.1071</v>
       </c>
       <c r="F91">
-        <v>64.43804168701172</v>
+        <v>64.43805694580078</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>65.69744873046875</v>
+        <v>65.69742584228516</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>63.40547180175781</v>
+        <v>63.40545654296875</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>65.50957489013672</v>
+        <v>65.50954437255859</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>66.09748077392578</v>
+        <v>66.09752655029297</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>42.84923934936523</v>
+        <v>42.84920501708984</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>66.18356323242188</v>
+        <v>66.18353271484375</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>46.32245635986328</v>
+        <v>46.32246398925781</v>
       </c>
     </row>
     <row r="100" spans="1:6">
